--- a/Zeta-Potential_Plots/20231027_Zeta_DIPPolymers_01XPBS.xlsx
+++ b/Zeta-Potential_Plots/20231027_Zeta_DIPPolymers_01XPBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6BDEC8-A570-9C42-90AC-D66FB72F56B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415DFC55-0FD4-9642-BC72-908AFD481F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{2BC56995-7C11-FC46-B432-C6E08EB8C94C}"/>
+    <workbookView xWindow="11180" yWindow="980" windowWidth="10000" windowHeight="8240" xr2:uid="{2BC56995-7C11-FC46-B432-C6E08EB8C94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
